--- a/data/outputs/model_disagreements.xlsx
+++ b/data/outputs/model_disagreements.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Disagreements" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Model Contributions" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Model Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Explanations" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>trust</t>
+          <t>training</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -491,32 +492,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>community impact</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>After receiving training from WiRED, I was able to teach others in my village about malaria prevention. The community now trusts me and people ask me for advice all the time.</t>
+          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>training</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -528,28 +529,28 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>After receiving training from WiRED, I was able to teach others in my village about malaria prevention. The community now trusts me and people ask me for advice all the time.</t>
+          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>knowledge sharing</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
+          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -558,7 +559,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -570,37 +571,37 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
+          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>community impact</t>
+          <t>trust</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
+          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>community impact</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -612,7 +613,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
+          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -624,52 +625,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>knowledge sharing</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +680,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trust</t>
+          <t>training</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -733,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -742,7 +701,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trust</t>
+          <t>training</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -751,19 +710,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trust</t>
+          <t>training</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -772,19 +731,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>community impact</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -805,7 +764,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>community impact</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -814,19 +773,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>community impact</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -835,19 +794,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>trust</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -859,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -868,7 +827,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>trust</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -877,19 +836,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>trust</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -898,19 +857,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>knowledge sharing</t>
+          <t>community impact</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -919,19 +878,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>knowledge sharing</t>
+          <t>community impact</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -943,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -952,7 +911,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>knowledge sharing</t>
+          <t>community impact</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -961,19 +920,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>knowledge sharing</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -985,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -994,7 +953,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>knowledge sharing</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1006,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>knowledge sharing</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1024,13 +983,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1041,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trust</t>
+          <t>training</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1094,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1103,7 +1062,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trust</t>
+          <t>training</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1112,19 +1071,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trust</t>
+          <t>training</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1133,19 +1092,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>community impact</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1166,7 +1125,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>community impact</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1175,19 +1134,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>community impact</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1196,19 +1155,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>trust</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1220,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1229,7 +1188,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>trust</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1238,19 +1197,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>trust</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1259,19 +1218,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>knowledge sharing</t>
+          <t>community impact</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1280,19 +1239,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>knowledge sharing</t>
+          <t>community impact</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1304,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1313,7 +1272,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>knowledge sharing</t>
+          <t>community impact</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1322,19 +1281,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>66.67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>knowledge sharing</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1346,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1355,7 +1314,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>knowledge sharing</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1367,16 +1326,16 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>knowledge sharing</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1385,13 +1344,306 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>testimonial</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>label_scores</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>explanation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>After receiving training from WiRED, I was able to teach others in my village about malaria prevention. The community now trusts me and people ask me for advice all the time.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{
+  "training": 1.0,
+  "trust": 1.0,
+  "community impact": 1.0,
+  "confidence": 0.9,
+  "knowledge sharing": 1.0
+}</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>The testimonial mentions receiving training (training), improving the community's trust in the speaker (trust), discussing community impact (community impact), indicating a boost in confidence (confidence), and sharing knowledge about malaria prevention with others (knowledge sharing).</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>After receiving training from WiRED, I was able to teach others in my village about malaria prevention. The community now trusts me and people ask me for advice all the time.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>llama3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{
+  "training": 0.4,
+  "trust": 0.6,
+  "community impact": 0.8,
+  "confidence": 0.2,
+  "knowledge sharing": 0.7
+}</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The testimonial mentions specific instances of community impact, such as the person teaching others in their village about malaria prevention and being asked for advice all the time. It also highlights knowledge sharing and trust gained from the training. While there is no explicit mention of confidence or training itself, it can be inferred that the training had a positive impact on the individual's ability to teach others.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>After receiving training from WiRED, I was able to teach others in my village about malaria prevention. The community now trusts me and people ask me for advice all the time.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>qwen:7b</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{
+  "training": 0.8,
+  "trust": 0.75,
+  "community impact": 0.9,
+  "confidence": 0.6,
+  "knowledge sharing": 0.85
+}</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The testimonial highlights the recipient's training from WiRED, which led to trust from the community and significant impact on malaria prevention. The scores reflect these aspects: 'training' got 80%, 'trust' received 75%, and so on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{
+  "training": 0.2,
+  "trust": 0.8,
+  "community impact": 1.0,
+  "confidence": 0.6,
+  "knowledge sharing": 1.0
+}</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The testimonial demonstrates the impact on the community (community_impact), knowledge sharing (knowledge_sharing) as the person shares information about clean water. The trust level is high as people recognize the individual as a health worker. The confidence level is moderate since the person visits homes to share information, which requires some level of self-assurance. Lastly, the training label was assigned a low score because while it implies that the person has knowledge about clean water, it doesn't explicitly mention any formal training.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>llama3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{
+  "training": 0.0,
+  "trust": 0.6,
+  "community impact": 0.8,
+  "confidence": 0.0,
+  "knowledge sharing": 0.7
+}</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>The testimonial mentions visiting homes and sharing information about clean water, which suggests a community-focused approach (community impact) that builds trust with the people being visited (trust). The mention of recognition as a health worker also implies a level of knowledge sharing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>qwen:7b</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>{
+  "training": 0.8,
+  "trust": 0.75,
+  "community impact": 0.9,
+  "confidence": 0.65,
+  "knowledge sharing": 0.85
+}</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>The labels were assigned based on the content of the testimonial. 'Training' and 'Knowledge Sharing' received high scores as they directly relate to the activities described. 'Community Impact' also scored highly, reflecting the positive impact the person is having on their community.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>{
+  "training": 1.0,
+  "trust": 0.0,
+  "community impact": 0.0,
+  "confidence": 0.8,
+  "knowledge sharing": 0.6
+}</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>The testimonial mentions 'after training' which implies learning and gaining skills, thus it falls under the 'training' category. The individual expresses feeling 'confident talking to people about disease prevention', indicating a boost in self-assurance which is associated with 'confidence'. Lastly, the act of sharing knowledge with others is hinted at by 'talking to people about disease prevention', hence it falls under 'knowledge sharing' category.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>llama3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>{
+  "training": 0.0,
+  "trust": 0.0,
+  "community impact": 0.0,
+  "confidence": 0.8,
+  "knowledge sharing": 0.4
+}</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>The testimonial mentions the speaker's confidence in talking about disease prevention after training, which aligns with the 'confidence' label. Additionally, the phrase 'talking to people about disease prevention' implies a willingness to share knowledge, which matches the 'knowledge sharing' label.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>qwen:7b</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>{
+  "training": 0.85,
+  "trust": 0.7,
+  "community impact": 0.65,
+  "confidence": 0.9,
+  "knowledge sharing": 0.8
+}</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>The labels were assigned based on the content of the testimonial. 'Training' and 'Confidence' scored high as the individual had no prior experience but gained confidence after training. Similarly, 'Knowledge Sharing' scored high, indicating the individual felt confident in sharing their knowledge about disease prevention.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/outputs/model_disagreements.xlsx
+++ b/data/outputs/model_disagreements.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>qwen:7b</t>
+          <t>gemini</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -487,7 +487,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>After receiving training from WiRED, I was able to teach others in my village about malaria prevention. The community now trusts me and people ask me for advice all the time.</t>
+          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -502,133 +502,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
+          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>knowledge sharing</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>confidence</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>trust</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>community impact</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>knowledge sharing</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -642,7 +537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,7 +575,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -689,19 +584,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -710,40 +605,40 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>qwen:7b</t>
+          <t>gemini</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>knowledge sharing</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -752,19 +647,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>knowledge sharing</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -773,222 +668,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>knowledge sharing</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>qwen:7b</t>
+          <t>gemini</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>trust</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>mistral</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>trust</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>llama3</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>trust</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>qwen:7b</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>community impact</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>mistral</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>community impact</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>llama3</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>community impact</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>qwen:7b</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>knowledge sharing</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>mistral</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>knowledge sharing</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>llama3</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>knowledge sharing</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>qwen:7b</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1003,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1041,7 +747,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1050,19 +756,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1071,40 +777,40 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
       <c r="E3" t="n">
-        <v>66.67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>qwen:7b</t>
+          <t>gemini</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>knowledge sharing</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1113,19 +819,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>knowledge sharing</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1134,222 +840,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>knowledge sharing</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>qwen:7b</t>
+          <t>gemini</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>trust</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>mistral</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>trust</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>llama3</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>trust</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>qwen:7b</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>community impact</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>mistral</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>community impact</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>llama3</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>community impact</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>qwen:7b</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>knowledge sharing</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>mistral</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>knowledge sharing</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>llama3</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>knowledge sharing</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>qwen:7b</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1411,14 +928,14 @@
   "training": 1.0,
   "trust": 1.0,
   "community impact": 1.0,
-  "confidence": 0.9,
+  "confidence": 0.8,
   "knowledge sharing": 1.0
 }</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The testimonial mentions receiving training (training), improving the community's trust in the speaker (trust), discussing community impact (community impact), indicating a boost in confidence (confidence), and sharing knowledge about malaria prevention with others (knowledge sharing).</t>
+          <t>The testimonial mentions 'receiving training from WiRED' which indicates 'training'. The text also implies the speaker gained trust in the community after the training, hence 'trust'. The speaker is now able to educate others about malaria prevention, demonstrating a positive impact on the 'community'. The speaker's ability to share knowledge and advice with others suggests 'confidence'. Lastly, the fact that the speaker taught others about malaria prevention indicates 'knowledge sharing'.</t>
         </is>
       </c>
     </row>
@@ -1434,215 +951,215 @@
         </is>
       </c>
       <c r="C3" t="inlineStr">
+        <is>
+          <t>{
+  "training": 0.8,
+  "trust": 0.5,
+  "community impact": 0.6,
+  "confidence": 0.4,
+  "knowledge sharing": 0.7
+}</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The testimonial mentions specific training received, which led to the ability to teach others and share knowledge with the community. The emphasis on the community's trust in the speaker suggests that this experience also had a positive impact on the community.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>After receiving training from WiRED, I was able to teach others in my village about malaria prevention. The community now trusts me and people ask me for advice all the time.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>gemini</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{
+  "training": 1.0,
+  "trust": 1.0,
+  "community impact": 1.0,
+  "confidence": 0.8,
+  "knowledge sharing": 1.0
+}</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The testimonial explicitly mentions receiving training and subsequently sharing that knowledge, impacting the community and building trust.  While "confidence" isn't explicitly stated, the ability to teach others and becoming a source of advice strongly implies increased self-assurance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>{
   "training": 0.4,
   "trust": 0.6,
+  "community impact": 1.0,
+  "confidence": 0.8,
+  "knowledge sharing": 1.0
+}</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The testimonial mentions sharing information about clean water in a community setting (knowledge_sharing, community_impact), and the speaker is recognized as a health worker which implies they are providing some form of training (although not directly stated, it is implied). The use of 'I' indicates a level of confidence (confidence). Lastly, while the term 'health worker' may suggest trust, the testimonial does not explicitly convey a strong display of trust, hence the lower score.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>llama3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{
+  "training": 0.0,
+  "trust": 0.7,
   "community impact": 0.8,
-  "confidence": 0.2,
+  "confidence": 0.0,
+  "knowledge sharing": 0.6
+}</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>The testimonial mentions visiting homes and sharing information, which suggests a positive community impact. The phrase 'people now recognize me as a health worker' implies that the speaker has built trust with the community. Finally, the mention of sharing information falls under knowledge sharing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>gemini</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>{
+  "training": 0.1,
+  "trust": 0.6,
+  "community impact": 0.8,
+  "confidence": 0.1,
   "knowledge sharing": 0.7
 }</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The testimonial mentions specific instances of community impact, such as the person teaching others in their village about malaria prevention and being asked for advice all the time. It also highlights knowledge sharing and trust gained from the training. While there is no explicit mention of confidence or training itself, it can be inferred that the training had a positive impact on the individual's ability to teach others.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>After receiving training from WiRED, I was able to teach others in my village about malaria prevention. The community now trusts me and people ask me for advice all the time.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>qwen:7b</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>The testimonial directly mentions visiting homes and sharing information, which strongly suggests community impact and knowledge sharing.  The phrase "People now recognize me as a health worker" implies a degree of trust built within the community. Training and confidence are less evident, as the testimonial focuses on the act of sharing information and its impact rather than the speaker's personal development.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>{
-  "training": 0.8,
-  "trust": 0.75,
-  "community impact": 0.9,
-  "confidence": 0.6,
-  "knowledge sharing": 0.85
-}</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>The testimonial highlights the recipient's training from WiRED, which led to trust from the community and significant impact on malaria prevention. The scores reflect these aspects: 'training' got 80%, 'trust' received 75%, and so on.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>mistral</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{
-  "training": 0.2,
-  "trust": 0.8,
-  "community impact": 1.0,
-  "confidence": 0.6,
-  "knowledge sharing": 1.0
-}</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The testimonial demonstrates the impact on the community (community_impact), knowledge sharing (knowledge_sharing) as the person shares information about clean water. The trust level is high as people recognize the individual as a health worker. The confidence level is moderate since the person visits homes to share information, which requires some level of self-assurance. Lastly, the training label was assigned a low score because while it implies that the person has knowledge about clean water, it doesn't explicitly mention any formal training.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>llama3</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{
-  "training": 0.0,
-  "trust": 0.6,
-  "community impact": 0.8,
-  "confidence": 0.0,
+  "training": 0.9,
+  "trust": 0.0,
+  "community impact": 0.4,
+  "confidence": 0.8,
   "knowledge sharing": 0.7
 }</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>The testimonial mentions visiting homes and sharing information about clean water, which suggests a community-focused approach (community impact) that builds trust with the people being visited (trust). The mention of recognition as a health worker also implies a level of knowledge sharing.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>qwen:7b</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>The testimonial mentions 'I had no previous experience' and 'after training I felt confident', indicating the individual received some form of training which increased their confidence level. The phrase 'talking to people about disease prevention' suggests knowledge sharing, although it is not explicitly clear that this impacts the community. Therefore, the scores for each category are assigned based on these inferences.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>llama3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>{
-  "training": 0.8,
-  "trust": 0.75,
-  "community impact": 0.9,
-  "confidence": 0.65,
-  "knowledge sharing": 0.85
+  "training": 0.7,
+  "trust": 0.0,
+  "community impact": 0.0,
+  "confidence": 0.9,
+  "knowledge sharing": 0.0
 }</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>The labels were assigned based on the content of the testimonial. 'Training' and 'Knowledge Sharing' received high scores as they directly relate to the activities described. 'Community Impact' also scored highly, reflecting the positive impact the person is having on their community.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>The testimonial mentions 'I felt confident' and 'after training', which strongly suggests a high confidence level, with a moderate connection to the training category.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>mistral</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>gemini</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>{
-  "training": 1.0,
+  "training": 0.9,
   "trust": 0.0,
   "community impact": 0.0,
   "confidence": 0.8,
-  "knowledge sharing": 0.6
+  "knowledge sharing": 0.2
 }</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>The testimonial mentions 'after training' which implies learning and gaining skills, thus it falls under the 'training' category. The individual expresses feeling 'confident talking to people about disease prevention', indicating a boost in self-assurance which is associated with 'confidence'. Lastly, the act of sharing knowledge with others is hinted at by 'talking to people about disease prevention', hence it falls under 'knowledge sharing' category.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>llama3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>{
-  "training": 0.0,
-  "trust": 0.0,
-  "community impact": 0.0,
-  "confidence": 0.8,
-  "knowledge sharing": 0.4
-}</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>The testimonial mentions the speaker's confidence in talking about disease prevention after training, which aligns with the 'confidence' label. Additionally, the phrase 'talking to people about disease prevention' implies a willingness to share knowledge, which matches the 'knowledge sharing' label.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>qwen:7b</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>{
-  "training": 0.85,
-  "trust": 0.7,
-  "community impact": 0.65,
-  "confidence": 0.9,
-  "knowledge sharing": 0.8
-}</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The labels were assigned based on the content of the testimonial. 'Training' and 'Confidence' scored high as the individual had no prior experience but gained confidence after training. Similarly, 'Knowledge Sharing' scored high, indicating the individual felt confident in sharing their knowledge about disease prevention.</t>
+          <t>The testimonial directly mentions "training" and the resulting feeling of "confident," thus these labels are assigned high scores.  "Knowledge sharing" is given a low score, as talking about disease prevention implies sharing knowledge, though it's not the primary focus.</t>
         </is>
       </c>
     </row>

--- a/data/outputs/model_disagreements.xlsx
+++ b/data/outputs/model_disagreements.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,12 +449,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>mistral</t>
+          <t>gpt</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>llama3</t>
+          <t>claude</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -466,22 +466,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>After receiving training from WiRED, I was able to teach others in my village about malaria prevention. The community now trusts me and people ask me for advice all the time.</t>
+          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>training</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -499,30 +499,9 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>knowledge sharing</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -575,49 +554,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>training</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mistral</t>
+          <t>gpt</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>training</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>llama3</t>
+          <t>claude</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>training</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -629,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -638,33 +617,33 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>knowledge sharing</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mistral</t>
+          <t>gpt</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>knowledge sharing</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>llama3</t>
+          <t>claude</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -680,7 +659,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>knowledge sharing</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -689,13 +668,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -747,49 +726,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>training</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mistral</t>
+          <t>gpt</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>training</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>llama3</t>
+          <t>claude</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>training</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -801,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -810,33 +789,33 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>knowledge sharing</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mistral</t>
+          <t>gpt</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>knowledge sharing</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>llama3</t>
+          <t>claude</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -852,7 +831,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>knowledge sharing</t>
+          <t>confidence</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -861,13 +840,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -919,10 +898,66 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mistral</t>
+          <t>gpt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
+        <is>
+          <t>{
+  "training": 1.0,
+  "trust": 0.8,
+  "community impact": 1.0,
+  "confidence": 0.6,
+  "knowledge sharing": 1.0
+}</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>The testimonial clearly mentions receiving training and sharing that knowledge with others in the community, hence the high scores for 'training', 'community impact', and 'knowledge sharing'. The person also mentions being trusted and asked for advice, indicating 'trust'. The 'confidence' aspect is somewhat implied, hence a lower score.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>After receiving training from WiRED, I was able to teach others in my village about malaria prevention. The community now trusts me and people ask me for advice all the time.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>claude</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{
+  "training": 1.0,
+  "trust": 0.9,
+  "community impact": 0.9,
+  "confidence": 0.7,
+  "knowledge sharing": 1.0
+}</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The testimonial explicitly mentions receiving training and teaching others (knowledge sharing), making these clear 1.0 scores. Trust is directly stated as something gained from the community (0.9). Community impact is evident through the village-wide education and behavioral change (0.9). Confidence is implied through the person's ability to teach and advise others, though not explicitly stated (0.7).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>After receiving training from WiRED, I was able to teach others in my village about malaria prevention. The community now trusts me and people ask me for advice all the time.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>gemini</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>{
   "training": 1.0,
@@ -933,121 +968,65 @@
 }</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>The testimonial mentions 'receiving training from WiRED' which indicates 'training'. The text also implies the speaker gained trust in the community after the training, hence 'trust'. The speaker is now able to educate others about malaria prevention, demonstrating a positive impact on the 'community'. The speaker's ability to share knowledge and advice with others suggests 'confidence'. Lastly, the fact that the speaker taught others about malaria prevention indicates 'knowledge sharing'.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>After receiving training from WiRED, I was able to teach others in my village about malaria prevention. The community now trusts me and people ask me for advice all the time.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>llama3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The testimonial explicitly mentions receiving "training" and then using that training to teach others, which clearly indicates "knowledge sharing."  The statement "The community now trusts me and people ask me for advice" directly reflects increased "trust" and positive "community impact." While "confidence" isn't explicitly stated, the testimonial implies increased confidence due to the newly acquired knowledge and the community's trust, so it's given a high score.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>gpt</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>{
-  "training": 0.8,
-  "trust": 0.5,
-  "community impact": 0.6,
-  "confidence": 0.4,
-  "knowledge sharing": 0.7
-}</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The testimonial mentions specific training received, which led to the ability to teach others and share knowledge with the community. The emphasis on the community's trust in the speaker suggests that this experience also had a positive impact on the community.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>After receiving training from WiRED, I was able to teach others in my village about malaria prevention. The community now trusts me and people ask me for advice all the time.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>gemini</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{
-  "training": 1.0,
-  "trust": 1.0,
-  "community impact": 1.0,
-  "confidence": 0.8,
+  "training": 0.1,
+  "trust": 0.8,
+  "community impact": 0.9,
+  "confidence": 0.7,
   "knowledge sharing": 1.0
 }</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>The testimonial explicitly mentions receiving training and subsequently sharing that knowledge, impacting the community and building trust.  While "confidence" isn't explicitly stated, the ability to teach others and becoming a source of advice strongly implies increased self-assurance.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The testimonial indicates that the person is recognized as a health worker, suggesting trust from the community. They are also sharing information about clean water, which is a clear example of knowledge sharing. The impact on the community is high as they are educating people about health. Confidence is inferred from the person's ability to visit homes and share information. Training is less relevant as there is no explicit mention of it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>mistral</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>claude</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>{
-  "training": 0.4,
-  "trust": 0.6,
-  "community impact": 1.0,
-  "confidence": 0.8,
+  "training": 0.7,
+  "trust": 0.9,
+  "community impact": 0.8,
+  "confidence": 0.6,
   "knowledge sharing": 1.0
 }</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The testimonial mentions sharing information about clean water in a community setting (knowledge_sharing, community_impact), and the speaker is recognized as a health worker which implies they are providing some form of training (although not directly stated, it is implied). The use of 'I' indicates a level of confidence (confidence). Lastly, while the term 'health worker' may suggest trust, the testimonial does not explicitly convey a strong display of trust, hence the lower score.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>I visit homes and share information about clean water. People now recognize me as a health worker.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>llama3</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{
-  "training": 0.0,
-  "trust": 0.7,
-  "community impact": 0.8,
-  "confidence": 0.0,
-  "knowledge sharing": 0.6
-}</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The testimonial mentions visiting homes and sharing information, which suggests a positive community impact. The phrase 'people now recognize me as a health worker' implies that the speaker has built trust with the community. Finally, the mention of sharing information falls under knowledge sharing.</t>
+          <t>The testimonial clearly shows knowledge sharing (1.0) as the person visits homes to share information. High trust (0.9) is evident as people recognize them as a health worker. Community impact (0.8) is strong through their outreach work. Training (0.7) is implied as they have knowledge to share. Confidence (0.6) is moderately present as they actively engage with the community.</t>
         </is>
       </c>
     </row>
@@ -1068,14 +1047,14 @@
   "training": 0.1,
   "trust": 0.6,
   "community impact": 0.8,
-  "confidence": 0.1,
+  "confidence": 0.2,
   "knowledge sharing": 0.7
 }</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The testimonial directly mentions visiting homes and sharing information, which strongly suggests community impact and knowledge sharing.  The phrase "People now recognize me as a health worker" implies a degree of trust built within the community. Training and confidence are less evident, as the testimonial focuses on the act of sharing information and its impact rather than the speaker's personal development.</t>
+          <t>The testimonial focuses on the impact of the person's work in the community by sharing information about clean water. This directly relates to 'community impact' and 'knowledge sharing'.  The phrase "People now recognize me as a health worker" suggests a degree of trust built within the community.  'Training' and 'confidence' are less prominent as the testimonial doesn't directly address those aspects, although some training may have been implied to enable the work.</t>
         </is>
       </c>
     </row>
@@ -1087,51 +1066,51 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>mistral</t>
+          <t>gpt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>{
+  "training": 1.0,
+  "trust": 0.0,
+  "community impact": 0.0,
+  "confidence": 1.0,
+  "knowledge sharing": 1.0
+}</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>The testimonial talks about the person's training experience, which led to increased confidence and ability to share knowledge about disease prevention. There is no mention of trust or community impact.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>claude</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>{
   "training": 0.9,
-  "trust": 0.0,
-  "community impact": 0.4,
-  "confidence": 0.8,
+  "trust": 0.1,
+  "community impact": 0.3,
+  "confidence": 0.95,
   "knowledge sharing": 0.7
 }</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>The testimonial mentions 'I had no previous experience' and 'after training I felt confident', indicating the individual received some form of training which increased their confidence level. The phrase 'talking to people about disease prevention' suggests knowledge sharing, although it is not explicitly clear that this impacts the community. Therefore, the scores for each category are assigned based on these inferences.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>I had no previous experience, but after training I felt confident talking to people about disease prevention.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>llama3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>{
-  "training": 0.7,
-  "trust": 0.0,
-  "community impact": 0.0,
-  "confidence": 0.9,
-  "knowledge sharing": 0.0
-}</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The testimonial mentions 'I felt confident' and 'after training', which strongly suggests a high confidence level, with a moderate connection to the training category.</t>
+          <t>The testimonial strongly emphasizes confidence (0.95) gained through training (0.9). Knowledge sharing (0.7) is evident as they now talk to people about disease prevention. Community impact (0.3) is implied through their disease prevention work. Trust (0.1) is minimally present as confidence in communication suggests some level of trust-building.</t>
         </is>
       </c>
     </row>
@@ -1150,16 +1129,16 @@
         <is>
           <t>{
   "training": 0.9,
-  "trust": 0.0,
-  "community impact": 0.0,
+  "trust": 0.1,
+  "community impact": 0.2,
   "confidence": 0.8,
-  "knowledge sharing": 0.2
+  "knowledge sharing": 0.5
 }</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The testimonial directly mentions "training" and the resulting feeling of "confident," thus these labels are assigned high scores.  "Knowledge sharing" is given a low score, as talking about disease prevention implies sharing knowledge, though it's not the primary focus.</t>
+          <t>The testimonial directly mentions "training" and the resulting "confidence". The gained confidence relates to discussing disease prevention, which can be interpreted as a form of "knowledge sharing", although not explicitly stated.  "Trust" and "community impact" are less relevant as the testimonial focuses on personal growth from the training.</t>
         </is>
       </c>
     </row>
